--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H2">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I2">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J2">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.732019</v>
+        <v>2.689040333333333</v>
       </c>
       <c r="N2">
-        <v>5.196057</v>
+        <v>8.067121</v>
       </c>
       <c r="O2">
-        <v>0.09330805423918299</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="P2">
-        <v>0.09330805423918298</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="Q2">
-        <v>4.095545406212334</v>
+        <v>11.056933183657</v>
       </c>
       <c r="R2">
-        <v>36.85990865591099</v>
+        <v>99.51239865291299</v>
       </c>
       <c r="S2">
-        <v>0.05324920819320994</v>
+        <v>0.1282453873527825</v>
       </c>
       <c r="T2">
-        <v>0.05324920819320995</v>
+        <v>0.1282453873527825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H3">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I3">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J3">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>35.115018</v>
       </c>
       <c r="O3">
-        <v>0.6305769940849161</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="P3">
-        <v>0.6305769940849161</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="Q3">
-        <v>27.67774692597933</v>
+        <v>48.12924062610599</v>
       </c>
       <c r="R3">
-        <v>249.099722333814</v>
+        <v>433.1631656349539</v>
       </c>
       <c r="S3">
-        <v>0.359858812978825</v>
+        <v>0.5582337348491402</v>
       </c>
       <c r="T3">
-        <v>0.359858812978825</v>
+        <v>0.5582337348491402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H4">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I4">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J4">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.125349</v>
+        <v>1.514375</v>
       </c>
       <c r="N4">
-        <v>15.376047</v>
+        <v>4.543125</v>
       </c>
       <c r="O4">
-        <v>0.2761149516759009</v>
+        <v>0.09474765803706024</v>
       </c>
       <c r="P4">
-        <v>0.2761149516759009</v>
+        <v>0.09474765803706024</v>
       </c>
       <c r="Q4">
-        <v>12.11943953974233</v>
+        <v>6.226884358125</v>
       </c>
       <c r="R4">
-        <v>109.074955857681</v>
+        <v>56.04195922312499</v>
       </c>
       <c r="S4">
-        <v>0.1575737771721097</v>
+        <v>0.07222338990788785</v>
       </c>
       <c r="T4">
-        <v>0.1575737771721098</v>
+        <v>0.07222338990788785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.111851</v>
+      </c>
+      <c r="H5">
+        <v>12.335553</v>
+      </c>
+      <c r="I5">
+        <v>0.7622709775015009</v>
+      </c>
+      <c r="J5">
+        <v>0.7622709775015009</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.4412883333333333</v>
-      </c>
-      <c r="H5">
-        <v>1.323865</v>
-      </c>
-      <c r="I5">
-        <v>0.1065019043983577</v>
-      </c>
-      <c r="J5">
-        <v>0.1065019043983578</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>1.732019</v>
+        <v>0.07482333333333334</v>
       </c>
       <c r="N5">
-        <v>5.196057</v>
+        <v>0.22447</v>
       </c>
       <c r="O5">
-        <v>0.09330805423918299</v>
+        <v>0.004681360693262658</v>
       </c>
       <c r="P5">
-        <v>0.09330805423918298</v>
+        <v>0.004681360693262658</v>
       </c>
       <c r="Q5">
-        <v>0.7643197778116667</v>
+        <v>0.30766239799</v>
       </c>
       <c r="R5">
-        <v>6.878878000305</v>
+        <v>2.76896158191</v>
       </c>
       <c r="S5">
-        <v>0.009937485472178244</v>
+        <v>0.00356846539169043</v>
       </c>
       <c r="T5">
-        <v>0.009937485472178246</v>
+        <v>0.00356846539169043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +797,10 @@
         <v>1.323865</v>
       </c>
       <c r="I6">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J6">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.705006</v>
+        <v>2.689040333333333</v>
       </c>
       <c r="N6">
-        <v>35.115018</v>
+        <v>8.067121</v>
       </c>
       <c r="O6">
-        <v>0.6305769940849161</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="P6">
-        <v>0.6305769940849161</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="Q6">
-        <v>5.165282589396666</v>
+        <v>1.186642126962778</v>
       </c>
       <c r="R6">
-        <v>46.48754330457</v>
+        <v>10.679779142665</v>
       </c>
       <c r="S6">
-        <v>0.06715765073983551</v>
+        <v>0.01376343482353742</v>
       </c>
       <c r="T6">
-        <v>0.06715765073983554</v>
+        <v>0.01376343482353742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>1.323865</v>
       </c>
       <c r="I7">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J7">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.125349</v>
+        <v>11.705006</v>
       </c>
       <c r="N7">
-        <v>15.376047</v>
+        <v>35.115018</v>
       </c>
       <c r="O7">
-        <v>0.2761149516759009</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="P7">
-        <v>0.2761149516759009</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="Q7">
-        <v>2.261756717961667</v>
+        <v>5.165282589396666</v>
       </c>
       <c r="R7">
-        <v>20.355810461655</v>
+        <v>46.48754330457</v>
       </c>
       <c r="S7">
-        <v>0.02940676818634396</v>
+        <v>0.05991025318330333</v>
       </c>
       <c r="T7">
-        <v>0.02940676818634397</v>
+        <v>0.05991025318330334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06615233333333333</v>
+        <v>0.4412883333333333</v>
       </c>
       <c r="H8">
-        <v>0.198457</v>
+        <v>1.323865</v>
       </c>
       <c r="I8">
-        <v>0.01596541070364794</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J8">
-        <v>0.01596541070364794</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.732019</v>
+        <v>1.514375</v>
       </c>
       <c r="N8">
-        <v>5.196057</v>
+        <v>4.543125</v>
       </c>
       <c r="O8">
-        <v>0.09330805423918299</v>
+        <v>0.09474765803706024</v>
       </c>
       <c r="P8">
-        <v>0.09330805423918298</v>
+        <v>0.09474765803706024</v>
       </c>
       <c r="Q8">
-        <v>0.1145770982276667</v>
+        <v>0.6682760197916667</v>
       </c>
       <c r="R8">
-        <v>1.031193884049</v>
+        <v>6.014484178125</v>
       </c>
       <c r="S8">
-        <v>0.001489701407886815</v>
+        <v>0.007751092965220606</v>
       </c>
       <c r="T8">
-        <v>0.001489701407886815</v>
+        <v>0.007751092965220608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,46 +977,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06615233333333333</v>
+        <v>0.4412883333333333</v>
       </c>
       <c r="H9">
-        <v>0.198457</v>
+        <v>1.323865</v>
       </c>
       <c r="I9">
-        <v>0.01596541070364794</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J9">
-        <v>0.01596541070364794</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>11.705006</v>
+        <v>0.07482333333333334</v>
       </c>
       <c r="N9">
-        <v>35.115018</v>
+        <v>0.22447</v>
       </c>
       <c r="O9">
-        <v>0.6305769940849161</v>
+        <v>0.004681360693262658</v>
       </c>
       <c r="P9">
-        <v>0.6305769940849161</v>
+        <v>0.004681360693262658</v>
       </c>
       <c r="Q9">
-        <v>0.7743134585806666</v>
+        <v>0.03301866406111111</v>
       </c>
       <c r="R9">
-        <v>6.968821127226</v>
+        <v>0.29716797655</v>
       </c>
       <c r="S9">
-        <v>0.01006742069083746</v>
+        <v>0.0003829715972822825</v>
       </c>
       <c r="T9">
-        <v>0.01006742069083746</v>
+        <v>0.0003829715972822825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H10">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I10">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J10">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.125349</v>
+        <v>2.689040333333333</v>
       </c>
       <c r="N10">
-        <v>15.376047</v>
+        <v>8.067121</v>
       </c>
       <c r="O10">
-        <v>0.2761149516759009</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="P10">
-        <v>0.2761149516759009</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="Q10">
-        <v>0.3390537954976666</v>
+        <v>0.1201122609157778</v>
       </c>
       <c r="R10">
-        <v>3.051484159479</v>
+        <v>1.081010348242</v>
       </c>
       <c r="S10">
-        <v>0.004408288604923662</v>
+        <v>0.001393138872334914</v>
       </c>
       <c r="T10">
-        <v>0.004408288604923663</v>
+        <v>0.001393138872334914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.9345180000000001</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H11">
-        <v>2.803554</v>
+        <v>0.134002</v>
       </c>
       <c r="I11">
-        <v>0.2255394923830099</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J11">
-        <v>0.2255394923830099</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,60 +1119,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.732019</v>
+        <v>11.705006</v>
       </c>
       <c r="N11">
-        <v>5.196057</v>
+        <v>35.115018</v>
       </c>
       <c r="O11">
-        <v>0.09330805423918299</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="P11">
-        <v>0.09330805423918298</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="Q11">
-        <v>1.618602931842</v>
+        <v>0.5228314046706667</v>
       </c>
       <c r="R11">
-        <v>14.567426386578</v>
+        <v>4.705482642036</v>
       </c>
       <c r="S11">
-        <v>0.02104465118835169</v>
+        <v>0.00606413323644708</v>
       </c>
       <c r="T11">
-        <v>0.02104465118835169</v>
+        <v>0.00606413323644708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.9345180000000001</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H12">
-        <v>2.803554</v>
+        <v>0.134002</v>
       </c>
       <c r="I12">
-        <v>0.2255394923830099</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J12">
-        <v>0.2255394923830099</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.705006</v>
+        <v>1.514375</v>
       </c>
       <c r="N12">
-        <v>35.115018</v>
+        <v>4.543125</v>
       </c>
       <c r="O12">
-        <v>0.6305769940849161</v>
+        <v>0.09474765803706024</v>
       </c>
       <c r="P12">
-        <v>0.6305769940849161</v>
+        <v>0.09474765803706024</v>
       </c>
       <c r="Q12">
-        <v>10.938538797108</v>
+        <v>0.06764309291666668</v>
       </c>
       <c r="R12">
-        <v>98.446849173972</v>
+        <v>0.60878783625</v>
       </c>
       <c r="S12">
-        <v>0.1422200151543162</v>
+        <v>0.0007845678823184326</v>
       </c>
       <c r="T12">
-        <v>0.1422200151543162</v>
+        <v>0.0007845678823184326</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.9345180000000001</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H13">
-        <v>2.803554</v>
+        <v>0.134002</v>
       </c>
       <c r="I13">
-        <v>0.2255394923830099</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J13">
-        <v>0.2255394923830099</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>5.125349</v>
+        <v>0.07482333333333334</v>
       </c>
       <c r="N13">
-        <v>15.376047</v>
+        <v>0.22447</v>
       </c>
       <c r="O13">
-        <v>0.2761149516759009</v>
+        <v>0.004681360693262658</v>
       </c>
       <c r="P13">
-        <v>0.2761149516759009</v>
+        <v>0.004681360693262658</v>
       </c>
       <c r="Q13">
-        <v>4.789730896782</v>
+        <v>0.003342158771111112</v>
       </c>
       <c r="R13">
-        <v>43.107578071038</v>
+        <v>0.03007942894</v>
       </c>
       <c r="S13">
-        <v>0.06227482604034201</v>
+        <v>3.876449636407067E-05</v>
       </c>
       <c r="T13">
-        <v>0.06227482604034202</v>
+        <v>3.876449636407067E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2603533333333333</v>
+        <v>0.372714</v>
       </c>
       <c r="H14">
-        <v>0.78106</v>
+        <v>1.118142</v>
       </c>
       <c r="I14">
-        <v>0.06283448648418176</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J14">
-        <v>0.06283448648418177</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.732019</v>
+        <v>2.689040333333333</v>
       </c>
       <c r="N14">
-        <v>5.196057</v>
+        <v>8.067121</v>
       </c>
       <c r="O14">
-        <v>0.09330805423918299</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="P14">
-        <v>0.09330805423918298</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="Q14">
-        <v>0.4509369200466666</v>
+        <v>1.002242978798</v>
       </c>
       <c r="R14">
-        <v>4.05843228042</v>
+        <v>9.020186809182</v>
       </c>
       <c r="S14">
-        <v>0.005862963672957243</v>
+        <v>0.01162465549014422</v>
       </c>
       <c r="T14">
-        <v>0.005862963672957243</v>
+        <v>0.01162465549014422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2603533333333333</v>
+        <v>0.372714</v>
       </c>
       <c r="H15">
-        <v>0.78106</v>
+        <v>1.118142</v>
       </c>
       <c r="I15">
-        <v>0.06283448648418176</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J15">
-        <v>0.06283448648418177</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>35.115018</v>
       </c>
       <c r="O15">
-        <v>0.6305769940849161</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="P15">
-        <v>0.6305769940849161</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="Q15">
-        <v>3.047437328786666</v>
+        <v>4.362619606283999</v>
       </c>
       <c r="R15">
-        <v>27.42693595908</v>
+        <v>39.263576456556</v>
       </c>
       <c r="S15">
-        <v>0.03962198161206462</v>
+        <v>0.05060045421163423</v>
       </c>
       <c r="T15">
-        <v>0.03962198161206463</v>
+        <v>0.05060045421163423</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2603533333333333</v>
+        <v>0.372714</v>
       </c>
       <c r="H16">
-        <v>0.78106</v>
+        <v>1.118142</v>
       </c>
       <c r="I16">
-        <v>0.06283448648418176</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J16">
-        <v>0.06283448648418177</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.125349</v>
+        <v>1.514375</v>
       </c>
       <c r="N16">
-        <v>15.376047</v>
+        <v>4.543125</v>
       </c>
       <c r="O16">
-        <v>0.2761149516759009</v>
+        <v>0.09474765803706024</v>
       </c>
       <c r="P16">
-        <v>0.2761149516759009</v>
+        <v>0.09474765803706024</v>
       </c>
       <c r="Q16">
-        <v>1.334401696646667</v>
+        <v>0.56442876375</v>
       </c>
       <c r="R16">
-        <v>12.00961526982</v>
+        <v>5.07985887375</v>
       </c>
       <c r="S16">
-        <v>0.0173495411991599</v>
+        <v>0.006546606028800293</v>
       </c>
       <c r="T16">
-        <v>0.0173495411991599</v>
+        <v>0.006546606028800293</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.07655866666666668</v>
+        <v>0.372714</v>
       </c>
       <c r="H17">
-        <v>0.229676</v>
+        <v>1.118142</v>
       </c>
       <c r="I17">
-        <v>0.01847690768665779</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J17">
-        <v>0.01847690768665779</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.732019</v>
+        <v>0.07482333333333334</v>
       </c>
       <c r="N17">
-        <v>5.196057</v>
+        <v>0.22447</v>
       </c>
       <c r="O17">
-        <v>0.09330805423918299</v>
+        <v>0.004681360693262658</v>
       </c>
       <c r="P17">
-        <v>0.09330805423918298</v>
+        <v>0.004681360693262658</v>
       </c>
       <c r="Q17">
-        <v>0.1326010652813334</v>
+        <v>0.02788770386</v>
       </c>
       <c r="R17">
-        <v>1.193409587532</v>
+        <v>0.25098933474</v>
       </c>
       <c r="S17">
-        <v>0.001724044304599042</v>
+        <v>0.0003234594371241825</v>
       </c>
       <c r="T17">
-        <v>0.001724044304599042</v>
+        <v>0.0003234594371241825</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.07655866666666668</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H18">
-        <v>0.229676</v>
+        <v>0.372041</v>
       </c>
       <c r="I18">
-        <v>0.01847690768665779</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J18">
-        <v>0.01847690768665779</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.705006</v>
+        <v>2.689040333333333</v>
       </c>
       <c r="N18">
-        <v>35.115018</v>
+        <v>8.067121</v>
       </c>
       <c r="O18">
-        <v>0.6305769940849161</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="P18">
-        <v>0.6305769940849161</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="Q18">
-        <v>0.8961196526853334</v>
+        <v>0.3334777515512222</v>
       </c>
       <c r="R18">
-        <v>8.065076874168</v>
+        <v>3.001299763961</v>
       </c>
       <c r="S18">
-        <v>0.01165111290903715</v>
+        <v>0.003867888383773031</v>
       </c>
       <c r="T18">
-        <v>0.01165111290903715</v>
+        <v>0.003867888383773031</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.07655866666666668</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H19">
-        <v>0.229676</v>
+        <v>0.372041</v>
       </c>
       <c r="I19">
-        <v>0.01847690768665779</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J19">
-        <v>0.01847690768665779</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,400 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.125349</v>
+        <v>11.705006</v>
       </c>
       <c r="N19">
-        <v>15.376047</v>
+        <v>35.115018</v>
       </c>
       <c r="O19">
-        <v>0.2761149516759009</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="P19">
-        <v>0.2761149516759009</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="Q19">
-        <v>0.3923898856413334</v>
+        <v>1.451580712415333</v>
       </c>
       <c r="R19">
-        <v>3.531508970772</v>
+        <v>13.064226411738</v>
       </c>
       <c r="S19">
-        <v>0.005101750473021598</v>
+        <v>0.01683636209475238</v>
       </c>
       <c r="T19">
-        <v>0.005101750473021599</v>
+        <v>0.01683636209475238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1240136666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.372041</v>
+      </c>
+      <c r="I20">
+        <v>0.02299013726750928</v>
+      </c>
+      <c r="J20">
+        <v>0.02299013726750928</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.514375</v>
+      </c>
+      <c r="N20">
+        <v>4.543125</v>
+      </c>
+      <c r="O20">
+        <v>0.09474765803706024</v>
+      </c>
+      <c r="P20">
+        <v>0.09474765803706024</v>
+      </c>
+      <c r="Q20">
+        <v>0.1878031964583333</v>
+      </c>
+      <c r="R20">
+        <v>1.690228768125</v>
+      </c>
+      <c r="S20">
+        <v>0.002178261664047044</v>
+      </c>
+      <c r="T20">
+        <v>0.002178261664047044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1240136666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.372041</v>
+      </c>
+      <c r="I21">
+        <v>0.02299013726750928</v>
+      </c>
+      <c r="J21">
+        <v>0.02299013726750928</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.07482333333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.22447</v>
+      </c>
+      <c r="O21">
+        <v>0.004681360693262658</v>
+      </c>
+      <c r="P21">
+        <v>0.004681360693262658</v>
+      </c>
+      <c r="Q21">
+        <v>0.00927911591888889</v>
+      </c>
+      <c r="R21">
+        <v>0.08351204327</v>
+      </c>
+      <c r="S21">
+        <v>0.0001076251249368309</v>
+      </c>
+      <c r="T21">
+        <v>0.0001076251249368309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2996773333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.8990320000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.05555535300647887</v>
+      </c>
+      <c r="J22">
+        <v>0.05555535300647887</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.689040333333333</v>
+      </c>
+      <c r="N22">
+        <v>8.067121</v>
+      </c>
+      <c r="O22">
+        <v>0.1682412044246168</v>
+      </c>
+      <c r="P22">
+        <v>0.1682412044246168</v>
+      </c>
+      <c r="Q22">
+        <v>0.8058444363191112</v>
+      </c>
+      <c r="R22">
+        <v>7.252599926872001</v>
+      </c>
+      <c r="S22">
+        <v>0.009346699502044763</v>
+      </c>
+      <c r="T22">
+        <v>0.009346699502044763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2996773333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.8990320000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.05555535300647887</v>
+      </c>
+      <c r="J23">
+        <v>0.05555535300647887</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.705006</v>
+      </c>
+      <c r="N23">
+        <v>35.115018</v>
+      </c>
+      <c r="O23">
+        <v>0.7323297768450604</v>
+      </c>
+      <c r="P23">
+        <v>0.7323297768450604</v>
+      </c>
+      <c r="Q23">
+        <v>3.507724984730666</v>
+      </c>
+      <c r="R23">
+        <v>31.569524862576</v>
+      </c>
+      <c r="S23">
+        <v>0.04068483926978322</v>
+      </c>
+      <c r="T23">
+        <v>0.04068483926978322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2996773333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.8990320000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.05555535300647887</v>
+      </c>
+      <c r="J24">
+        <v>0.05555535300647887</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.514375</v>
+      </c>
+      <c r="N24">
+        <v>4.543125</v>
+      </c>
+      <c r="O24">
+        <v>0.09474765803706024</v>
+      </c>
+      <c r="P24">
+        <v>0.09474765803706024</v>
+      </c>
+      <c r="Q24">
+        <v>0.4538238616666667</v>
+      </c>
+      <c r="R24">
+        <v>4.084414755</v>
+      </c>
+      <c r="S24">
+        <v>0.005263739588786027</v>
+      </c>
+      <c r="T24">
+        <v>0.005263739588786027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2996773333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.8990320000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.05555535300647887</v>
+      </c>
+      <c r="J25">
+        <v>0.05555535300647887</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.07482333333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.22447</v>
+      </c>
+      <c r="O25">
+        <v>0.004681360693262658</v>
+      </c>
+      <c r="P25">
+        <v>0.004681360693262658</v>
+      </c>
+      <c r="Q25">
+        <v>0.02242285700444445</v>
+      </c>
+      <c r="R25">
+        <v>0.20180571304</v>
+      </c>
+      <c r="S25">
+        <v>0.0002600746458648616</v>
+      </c>
+      <c r="T25">
+        <v>0.0002600746458648616</v>
       </c>
     </row>
   </sheetData>
